--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/144.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/144.xlsx
@@ -479,13 +479,13 @@
         <v>-0.3024009491038854</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.937882183804601</v>
+        <v>-1.961426189294549</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0419495976840036</v>
+        <v>0.0371825406671867</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2923152722967248</v>
+        <v>-0.2948937172252696</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2705890426548482</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.041946381460073</v>
+        <v>-2.072106594873974</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02287990956864509</v>
+        <v>0.01549206622864707</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2939096448119971</v>
+        <v>-0.2953755330952694</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2498207662690311</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.165865773103813</v>
+        <v>-2.202350184823485</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04985721814436512</v>
+        <v>0.04665241258482052</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3058031965605394</v>
+        <v>-0.3123135509979013</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2388030634185669</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.307593371312366</v>
+        <v>-2.356531993247489</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06901304909708725</v>
+        <v>0.06654118767917883</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3354158919403496</v>
+        <v>-0.3397566149146212</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2273506597288795</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.504553128751903</v>
+        <v>-2.565889749050978</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1021926419629874</v>
+        <v>0.1053770068492593</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3162060392082638</v>
+        <v>-0.322120694024535</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2086863040658094</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.435570966624786</v>
+        <v>-2.501965923534813</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2275844921064083</v>
+        <v>0.2332246578815886</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.379131191830247</v>
+        <v>-0.3837537040860639</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1802369422697364</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.298831622718823</v>
+        <v>-2.371498216203348</v>
       </c>
       <c r="F8" t="n">
-        <v>0.320468371505747</v>
+        <v>0.3263348447350182</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3998171531822414</v>
+        <v>-0.4075101465732394</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1411255080052017</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.021102734914261</v>
+        <v>-2.096486477895968</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4368663254091703</v>
+        <v>0.4471027225745312</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3472627221499828</v>
+        <v>-0.3607871476160701</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.09144020245945082</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.666512535459992</v>
+        <v>-1.742608781910063</v>
       </c>
       <c r="F10" t="n">
-        <v>0.513774358597786</v>
+        <v>0.5321213229081447</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2634778624531871</v>
+        <v>-0.2773950408557288</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.03057625303808778</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.107887915541688</v>
+        <v>-1.180144235512668</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4946141475007911</v>
+        <v>0.5138181600405133</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2130609418260188</v>
+        <v>-0.2277563258610149</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.04219611225256995</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5375522498862044</v>
+        <v>-0.6083660423433672</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3978319396987262</v>
+        <v>0.4178535791693572</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1137966522694091</v>
+        <v>-0.1272057339363146</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1283146449275024</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02772288908618924</v>
+        <v>-0.05008745382260805</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2599449979933087</v>
+        <v>0.2804309327568487</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01197335032955711</v>
+        <v>-0.00260522985816625</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.225772116350531</v>
       </c>
       <c r="E14" t="n">
-        <v>0.623876585133211</v>
+        <v>0.5473759053619588</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.02240056187470639</v>
+        <v>-0.007325565336074073</v>
       </c>
       <c r="G14" t="n">
-        <v>0.15362867615761</v>
+        <v>0.1386223018792504</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.3263325619813882</v>
       </c>
       <c r="E15" t="n">
-        <v>1.161028277778521</v>
+        <v>1.089420219159904</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2427218187928291</v>
+        <v>-0.2301946061728324</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3066723770947507</v>
+        <v>0.2910513225701185</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.4208967323703645</v>
       </c>
       <c r="E16" t="n">
-        <v>1.709959638421283</v>
+        <v>1.643184338983574</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6254427648146353</v>
+        <v>-0.6207078288558184</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4625222904626179</v>
+        <v>0.4526903266184388</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.5067476525293757</v>
       </c>
       <c r="E17" t="n">
-        <v>2.311851323465576</v>
+        <v>2.250546824224501</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8440309446488494</v>
+        <v>-0.8330908043036706</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5973825524755817</v>
+        <v>0.5911218662617652</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.5910693756746014</v>
       </c>
       <c r="E18" t="n">
-        <v>2.790307622808266</v>
+        <v>2.726347296089828</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.147944334915768</v>
+        <v>-1.146580649998859</v>
       </c>
       <c r="G18" t="n">
-        <v>0.759228883352811</v>
+        <v>0.7497677717237227</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.6815583864673829</v>
       </c>
       <c r="E19" t="n">
-        <v>3.224089370665331</v>
+        <v>3.15898290619553</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.436499479314418</v>
+        <v>-1.439771447086144</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9413231611547621</v>
+        <v>0.9321175579415828</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.7815521243159741</v>
       </c>
       <c r="E20" t="n">
-        <v>3.536945555489065</v>
+        <v>3.474124066281536</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.711455735794344</v>
+        <v>-1.712362425658798</v>
       </c>
       <c r="G20" t="n">
-        <v>1.12140403263935</v>
+        <v>1.113795722037625</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.8839410742675957</v>
       </c>
       <c r="E21" t="n">
-        <v>3.903670214626876</v>
+        <v>3.841721834177711</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.9778393199085</v>
+        <v>-1.979497934539772</v>
       </c>
       <c r="G21" t="n">
-        <v>1.253589486549769</v>
+        <v>1.243106341257045</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.9816218210211811</v>
       </c>
       <c r="E22" t="n">
-        <v>4.256847087529144</v>
+        <v>4.193892733945344</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.25352560043388</v>
+        <v>-2.262147914434741</v>
       </c>
       <c r="G22" t="n">
-        <v>1.408564831111182</v>
+        <v>1.396539875034458</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.066060579718583</v>
       </c>
       <c r="E23" t="n">
-        <v>4.372869809073205</v>
+        <v>4.304259229185223</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.547279976084256</v>
+        <v>-2.560890544387707</v>
       </c>
       <c r="G23" t="n">
-        <v>1.5448296593876</v>
+        <v>1.536993581283693</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.134361836974889</v>
       </c>
       <c r="E24" t="n">
-        <v>4.568503112822151</v>
+        <v>4.502333733342169</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.862586121604535</v>
+        <v>-2.884724830806983</v>
       </c>
       <c r="G24" t="n">
-        <v>1.624003687213306</v>
+        <v>1.617912366578035</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.187206336507078</v>
       </c>
       <c r="E25" t="n">
-        <v>4.592326717521509</v>
+        <v>4.525522217121981</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.086721754160156</v>
+        <v>-3.113718773385103</v>
       </c>
       <c r="G25" t="n">
-        <v>1.7130403398931</v>
+        <v>1.704951673469466</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.228023191866166</v>
       </c>
       <c r="E26" t="n">
-        <v>4.646698908426949</v>
+        <v>4.574458648984969</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.225750453472664</v>
+        <v>-3.259239576533837</v>
       </c>
       <c r="G26" t="n">
-        <v>1.832577397191977</v>
+        <v>1.827026294350342</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.260618308436288</v>
       </c>
       <c r="E27" t="n">
-        <v>4.638781067629951</v>
+        <v>4.570344233464787</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.360856733588946</v>
+        <v>-3.400226930360299</v>
       </c>
       <c r="G27" t="n">
-        <v>1.882335836130146</v>
+        <v>1.871686245355058</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.286850975459191</v>
       </c>
       <c r="E28" t="n">
-        <v>4.589511744802237</v>
+        <v>4.5230941571468</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.42996810997211</v>
+        <v>-3.476826893401733</v>
       </c>
       <c r="G28" t="n">
-        <v>1.864117356051787</v>
+        <v>1.857050723291789</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.307772102640364</v>
       </c>
       <c r="E29" t="n">
-        <v>4.493242013880081</v>
+        <v>4.426437513480553</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.487558976893958</v>
+        <v>-3.530493151055219</v>
       </c>
       <c r="G29" t="n">
-        <v>1.903708020084867</v>
+        <v>1.895777038855051</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.320679315901938</v>
       </c>
       <c r="E30" t="n">
-        <v>4.441154798236913</v>
+        <v>4.38274557436011</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.597091784673928</v>
+        <v>-3.642413867487871</v>
       </c>
       <c r="G30" t="n">
-        <v>1.928685062776042</v>
+        <v>1.92042265062959</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.323625384657861</v>
       </c>
       <c r="E31" t="n">
-        <v>4.251185021032601</v>
+        <v>4.203439988411795</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.544386238664261</v>
+        <v>-3.587167837800022</v>
       </c>
       <c r="G31" t="n">
-        <v>1.913601305948865</v>
+        <v>1.908657583113048</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.314046094639825</v>
       </c>
       <c r="E32" t="n">
-        <v>4.134735965445995</v>
+        <v>4.094386076405643</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.470511455384508</v>
+        <v>-3.510366388122042</v>
       </c>
       <c r="G32" t="n">
-        <v>1.825138452168797</v>
+        <v>1.816960722811618</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.293692012096704</v>
       </c>
       <c r="E33" t="n">
-        <v>3.908911787273238</v>
+        <v>3.87753535379961</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.475465398556961</v>
+        <v>-3.517392139535495</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786213570065172</v>
+        <v>1.78044199996181</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.263723442118003</v>
       </c>
       <c r="E34" t="n">
-        <v>3.742275038609737</v>
+        <v>3.715678802585745</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.437935592404199</v>
+        <v>-3.477674451318506</v>
       </c>
       <c r="G34" t="n">
-        <v>1.688791861199289</v>
+        <v>1.682653819025109</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.228260281240679</v>
       </c>
       <c r="E35" t="n">
-        <v>3.644142286323582</v>
+        <v>3.621523221299224</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.349314323406268</v>
+        <v>-3.386645563018666</v>
       </c>
       <c r="G35" t="n">
-        <v>1.623080936819852</v>
+        <v>1.619553460632216</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.188781784828552</v>
       </c>
       <c r="E36" t="n">
-        <v>3.440518139373091</v>
+        <v>3.417998357618915</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.273315170154242</v>
+        <v>-3.296846765235418</v>
       </c>
       <c r="G36" t="n">
-        <v>1.528014285524605</v>
+        <v>1.522539105183697</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.148002201097379</v>
       </c>
       <c r="E37" t="n">
-        <v>3.266254099482683</v>
+        <v>3.248666360179597</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.194970449644173</v>
+        <v>-3.217053677019167</v>
       </c>
       <c r="G37" t="n">
-        <v>1.403498464235729</v>
+        <v>1.399538813813185</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.106218235341667</v>
       </c>
       <c r="E38" t="n">
-        <v>3.145954897080352</v>
+        <v>3.123855609176358</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.077048935557886</v>
+        <v>-3.095447731575472</v>
       </c>
       <c r="G38" t="n">
-        <v>1.34523962531229</v>
+        <v>1.338451861737656</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.063177845530118</v>
       </c>
       <c r="E39" t="n">
-        <v>2.822476862395257</v>
+        <v>2.807302582586443</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.945883325238967</v>
+        <v>-2.961630673923463</v>
       </c>
       <c r="G39" t="n">
-        <v>1.215279284692416</v>
+        <v>1.207552710195327</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.018516032052337</v>
       </c>
       <c r="E40" t="n">
-        <v>2.570259394883143</v>
+        <v>2.556307175326419</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.842531631051858</v>
+        <v>-2.854696021721264</v>
       </c>
       <c r="G40" t="n">
-        <v>1.190566510705695</v>
+        <v>1.183997754344697</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.970721371230484</v>
       </c>
       <c r="E41" t="n">
-        <v>2.395868330808826</v>
+        <v>2.378163787658467</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.75842118063079</v>
+        <v>-2.767330394081515</v>
       </c>
       <c r="G41" t="n">
-        <v>1.069937337434818</v>
+        <v>1.061785888943275</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.9198487604489447</v>
       </c>
       <c r="E42" t="n">
-        <v>2.169721482007978</v>
+        <v>2.147244041648438</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.66212151872277</v>
+        <v>-2.662028805668998</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9764957196647527</v>
+        <v>0.9697108761862999</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.8643581869653202</v>
       </c>
       <c r="E43" t="n">
-        <v>2.052945375649009</v>
+        <v>2.032392278673287</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.586761866534563</v>
+        <v>-2.588183953375109</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8712364726468719</v>
+        <v>0.8636602831031466</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.8060736329691675</v>
       </c>
       <c r="E44" t="n">
-        <v>1.847681594692428</v>
+        <v>1.824223002015798</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.574477751921703</v>
+        <v>-2.57917253655802</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7964834704404373</v>
+        <v>0.7887306150777121</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.7451262634684439</v>
       </c>
       <c r="E45" t="n">
-        <v>1.611480854737582</v>
+        <v>1.583266885428863</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.467934392607868</v>
+        <v>-2.469107541248913</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6942114818165558</v>
+        <v>0.6845430433585583</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.6843102516557518</v>
       </c>
       <c r="E46" t="n">
-        <v>1.418366133945452</v>
+        <v>1.385948686183006</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.423198519102425</v>
+        <v>-2.42678074709347</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6710945403931983</v>
+        <v>0.6612319155391101</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.624394806415529</v>
       </c>
       <c r="E47" t="n">
-        <v>1.139587471563527</v>
+        <v>1.105774217826172</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.361618800796215</v>
+        <v>-2.362670035421669</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5611865002538642</v>
+        <v>0.5526306184411393</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.5670742707489348</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9835594323285689</v>
+        <v>0.9470085884207606</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.310989443171819</v>
+        <v>-2.310126554750092</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4748115152437964</v>
+        <v>0.4651854181804354</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.5122999663017257</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7620715969858103</v>
+        <v>0.72217578290173</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.250062366362245</v>
+        <v>-2.249989363957699</v>
       </c>
       <c r="G49" t="n">
-        <v>0.400235178856362</v>
+        <v>0.3920968707976368</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.4609973454207031</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6399721552873885</v>
+        <v>0.594260969657219</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.201120094306894</v>
+        <v>-2.199491410661485</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3260676559343819</v>
+        <v>0.3169919970012934</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.413278585448072</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4781418849391592</v>
+        <v>0.4212116897784472</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.152172712083225</v>
+        <v>-2.156566726812815</v>
       </c>
       <c r="G51" t="n">
-        <v>0.267567909075943</v>
+        <v>0.2616415738749446</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.3695462197973201</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3611847326169179</v>
+        <v>0.2988465193274801</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.076363365083019</v>
+        <v>-2.078848366933745</v>
       </c>
       <c r="G52" t="n">
-        <v>0.236289298824406</v>
+        <v>0.225574005885227</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.3300524861451141</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2283918987006808</v>
+        <v>0.1639774970259708</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.026370588426259</v>
+        <v>-2.027007899417941</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1380236821619778</v>
+        <v>0.1305102746861616</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.2939575542648115</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1900700164586002</v>
+        <v>0.1214419159935277</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.977459707404863</v>
+        <v>-1.977695505171545</v>
       </c>
       <c r="G54" t="n">
-        <v>0.07851212197653924</v>
+        <v>0.06438761674508849</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.2608164434683407</v>
       </c>
       <c r="E55" t="n">
-        <v>0.004607407710922723</v>
+        <v>-0.07230646567005662</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.966211496912503</v>
+        <v>-1.964855842260094</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0362247491195506</v>
+        <v>0.0204810505552821</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.228981627332315</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.1139528774151363</v>
+        <v>-0.192637789130388</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.857329140557032</v>
+        <v>-1.851136346579443</v>
       </c>
       <c r="G56" t="n">
-        <v>0.008358271256467171</v>
+        <v>-0.007962146303710265</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1982925326798106</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2686668733682766</v>
+        <v>-0.349578358422164</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.778003267729871</v>
+        <v>-1.773522380138873</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.04397277241788242</v>
+        <v>-0.05810749798596953</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1677008744785637</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3077990823008116</v>
+        <v>-0.3928571039328796</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.764671568611784</v>
+        <v>-1.762523837870057</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1263180246970421</v>
+        <v>-0.1407637405084928</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.1378054114701053</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.5385932641750223</v>
+        <v>-0.6327838866157243</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.721153375214159</v>
+        <v>-1.71712218243516</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.146357184744764</v>
+        <v>-0.1624688154279415</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.1090321754249048</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.558779889079926</v>
+        <v>-0.6566746535272634</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.650487047614178</v>
+        <v>-1.64255314628818</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1886854389482981</v>
+        <v>-0.2017514093138401</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.08314676125892451</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.6973968548307978</v>
+        <v>-0.8088467057541315</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.657562440662722</v>
+        <v>-1.650304541602815</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2329394965837408</v>
+        <v>-0.2490160861127365</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.06095303403655452</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.8632057562267533</v>
+        <v>-0.9808549713440854</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.596355764643738</v>
+        <v>-1.58772980052265</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2881453749490896</v>
+        <v>-0.30363502514554</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.04337835805147301</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.9372287343877335</v>
+        <v>-1.061141555815064</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.630931163484547</v>
+        <v>-1.62287023797464</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3473182039774373</v>
+        <v>-0.3621187114749788</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.03044513633148324</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.136385134180044</v>
+        <v>-1.268296099049372</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.597179231767011</v>
+        <v>-1.589243870392922</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3888653324523352</v>
+        <v>-0.4087395070657845</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.02157699729085883</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.305182754018089</v>
+        <v>-1.444471341890779</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.544715323716388</v>
+        <v>-1.53144640666621</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.4462058011265926</v>
+        <v>-0.4647367314964058</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.01602538401446373</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.430091328243419</v>
+        <v>-1.574009728612381</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.577172192777289</v>
+        <v>-1.563072508363384</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.4456933242466836</v>
+        <v>-0.4678656145552231</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.01296462885602525</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.568829477985836</v>
+        <v>-1.71663890651707</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.542963266007298</v>
+        <v>-1.526654528831848</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.495821155351852</v>
+        <v>-0.5196579004840274</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.01181690529051511</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.716834552961251</v>
+        <v>-1.869309565166983</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.575281430499562</v>
+        <v>-1.550675240023478</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.5068182375725763</v>
+        <v>-0.5311820600655698</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.01240647977550399</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.815863774775225</v>
+        <v>-1.971368386769592</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.590623615838831</v>
+        <v>-1.563595205579929</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.5127781538796656</v>
+        <v>-0.5389641163901131</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.0149638040909509</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.940019694209691</v>
+        <v>-2.101475462222603</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.599075834237101</v>
+        <v>-1.5685944102432</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5931581814284622</v>
+        <v>-0.6221211554078181</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.02004531250383977</v>
       </c>
       <c r="E71" t="n">
-        <v>-2.015595433515353</v>
+        <v>-2.179290915299718</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.611991419649279</v>
+        <v>-1.578661441830016</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.6340001066754513</v>
+        <v>-0.6684864425827147</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.02839969887181902</v>
       </c>
       <c r="E72" t="n">
-        <v>-2.100659295339785</v>
+        <v>-2.263612342669923</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.610605834011007</v>
+        <v>-1.578921330390197</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6422406181005399</v>
+        <v>-0.6698983090866234</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.04018583067083701</v>
       </c>
       <c r="E73" t="n">
-        <v>-2.08644718722288</v>
+        <v>-2.248289867979882</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.601327228393282</v>
+        <v>-1.572063484507199</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6915785631885267</v>
+        <v>-0.7235229553695182</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.05553651106193877</v>
       </c>
       <c r="E74" t="n">
-        <v>-2.130012832183459</v>
+        <v>-2.290287421290825</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.590271744248922</v>
+        <v>-1.557445483021021</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6901520962037089</v>
+        <v>-0.7202159464436099</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.07362268675159685</v>
       </c>
       <c r="E75" t="n">
-        <v>-2.028635853039304</v>
+        <v>-2.187034280349852</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.544426234194389</v>
+        <v>-1.507323492108217</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7109913626052488</v>
+        <v>-0.7411968375099679</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.09416222812598531</v>
       </c>
       <c r="E76" t="n">
-        <v>-2.008389366162673</v>
+        <v>-2.160884089017632</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.430933775991874</v>
+        <v>-1.388595301451703</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.71333911993543</v>
+        <v>-0.743242364885331</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.1168236467728524</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.859547683631168</v>
+        <v>-2.006983339851128</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.444345777754961</v>
+        <v>-1.402493499229063</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.6737761968160769</v>
+        <v>-0.7041349767703415</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.1417304612982659</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.712680716142616</v>
+        <v>-1.853600907756896</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.408291350198062</v>
+        <v>-1.364333682325073</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.6827116911324381</v>
+        <v>-0.7143261124448842</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.168426317025662</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.547071841335115</v>
+        <v>-1.678750658557989</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.354225769391712</v>
+        <v>-1.305433882289726</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6558365859230818</v>
+        <v>-0.6844053469178922</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.1970883650506327</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.353073791447985</v>
+        <v>-1.481117088924496</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.342269435575261</v>
+        <v>-1.294614925936092</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5882159186407363</v>
+        <v>-0.6148165348090019</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.2261878545032072</v>
       </c>
       <c r="E81" t="n">
-        <v>-1.195553583064119</v>
+        <v>-1.316249918547177</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.229452979638837</v>
+        <v>-1.183077472127304</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.531498890501297</v>
+        <v>-0.5573286012775628</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.255199711328034</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.9800344243169947</v>
+        <v>-1.096914194090418</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.198891252999936</v>
+        <v>-1.155866555857038</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4928981390738528</v>
+        <v>-0.5165655186274828</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.2829956892206194</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.7128120425746119</v>
+        <v>-0.8226237195399461</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.113160149197959</v>
+        <v>-1.068758626705335</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4639672861524969</v>
+        <v>-0.4869542832957635</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.3090393023543902</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.4065946964202396</v>
+        <v>-0.5041127684601225</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.049675798157158</v>
+        <v>-1.001462090099171</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.4095250129386934</v>
+        <v>-0.4304095408310514</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.3324904266740576</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.1818494937866636</v>
+        <v>-0.2686318322140948</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.9887202504098106</v>
+        <v>-0.9444603525820042</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3725551352287942</v>
+        <v>-0.3866329189213358</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.3513007030467266</v>
       </c>
       <c r="E86" t="n">
-        <v>0.08211406061681101</v>
+        <v>0.005607540653195181</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.935221168262734</v>
+        <v>-0.8880922759362921</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2822073593633639</v>
+        <v>-0.2977948327819052</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.3635283355989657</v>
       </c>
       <c r="E87" t="n">
-        <v>0.3300652676072899</v>
+        <v>0.2615130896429447</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8305634610583076</v>
+        <v>-0.7868598415531375</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2183390156746538</v>
+        <v>-0.231593332243923</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.3668005682249648</v>
       </c>
       <c r="E88" t="n">
-        <v>0.5343303756696896</v>
+        <v>0.4685683496070709</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6961660342901619</v>
+        <v>-0.6612971657830803</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1875816425915711</v>
+        <v>-0.1997190223712951</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.3605001805970841</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8116022684217969</v>
+        <v>0.7538456860416306</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.539845985437022</v>
+        <v>-0.5077599685912124</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.111688342826137</v>
+        <v>-0.1225890618728613</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.344704604134667</v>
       </c>
       <c r="E90" t="n">
-        <v>1.05779265741464</v>
+        <v>1.004537403298745</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4024992615252407</v>
+        <v>-0.372382849554067</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.05891198448406022</v>
+        <v>-0.06777301634778511</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.3210738254184762</v>
       </c>
       <c r="E91" t="n">
-        <v>1.233306498470865</v>
+        <v>1.185138051903697</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2231703148074707</v>
+        <v>-0.1928115348532061</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.0349058737733394</v>
+        <v>-0.03932543934452003</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.2917548354105226</v>
       </c>
       <c r="E92" t="n">
-        <v>1.352077030522016</v>
+        <v>1.313920133714207</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.07412276549514704</v>
+        <v>-0.04455533160615498</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.03611771368879362</v>
+        <v>-0.04026571031506523</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.2593501127972123</v>
       </c>
       <c r="E93" t="n">
-        <v>1.454038028902533</v>
+        <v>1.423619386976542</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09316662466498986</v>
+        <v>0.1162251641647109</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.03591184690797549</v>
+        <v>-0.03974447314661082</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.2255354912622849</v>
       </c>
       <c r="E94" t="n">
-        <v>1.456198900077078</v>
+        <v>1.440560324975355</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2316069245968618</v>
+        <v>0.2518212904154927</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.05767824384724237</v>
+        <v>-0.06302201985996821</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1912876349728056</v>
       </c>
       <c r="E95" t="n">
-        <v>1.494611305300795</v>
+        <v>1.486180987623889</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3968391069969083</v>
+        <v>0.4135172363393584</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.0819033617715995</v>
+        <v>-0.08373572212568992</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.1574797572652278</v>
       </c>
       <c r="E96" t="n">
-        <v>1.432302292973176</v>
+        <v>1.433312646252084</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4398054022161695</v>
+        <v>0.454686212358711</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1182468788504988</v>
+        <v>-0.1210706118583163</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.12572161323065</v>
       </c>
       <c r="E97" t="n">
-        <v>1.360543849401195</v>
+        <v>1.361822851528831</v>
       </c>
       <c r="F97" t="n">
-        <v>0.517453679786876</v>
+        <v>0.5300144735129635</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1531741492812167</v>
+        <v>-0.1579850077407609</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.09640443118558535</v>
       </c>
       <c r="E98" t="n">
-        <v>1.269198860689674</v>
+        <v>1.269860262474856</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5421693738697784</v>
+        <v>0.5544366979295933</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1931079246156605</v>
+        <v>-0.195403120214569</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.07007142944742997</v>
       </c>
       <c r="E99" t="n">
-        <v>1.206599298791964</v>
+        <v>1.213547667656598</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5672938814181353</v>
+        <v>0.5749182525488605</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.2160292195948362</v>
+        <v>-0.2149867452579274</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.04351522598501344</v>
       </c>
       <c r="E100" t="n">
-        <v>1.109260812667263</v>
+        <v>1.112249531109353</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5406626042399606</v>
+        <v>0.5468240071835954</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.2325321431663772</v>
+        <v>-0.2313918456073775</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.01824242867117514</v>
       </c>
       <c r="E101" t="n">
-        <v>1.020986305090922</v>
+        <v>1.027195889621557</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5261701668896008</v>
+        <v>0.530902182752236</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.2246274428021975</v>
+        <v>-0.2227512810053799</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.01239399769811607</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9518106865917593</v>
+        <v>0.9576275181859395</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4669768971879804</v>
+        <v>0.4739033653312513</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2510689137285541</v>
+        <v>-0.2504615337227361</v>
       </c>
     </row>
   </sheetData>
